--- a/branched-linear selectivity data/selectivity_data_builder_v1.xlsx
+++ b/branched-linear selectivity data/selectivity_data_builder_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwb1j\OneDrive\Documents\GitHub\phosphine-ligands\branched-linear selectivity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E709B-B403-49AF-BF27-5227528DB408}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F09BCBC-69D3-4B2E-8308-1B40B9AB7F3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14427" xr2:uid="{B25C7A4C-7FB3-4697-B2F1-5A343142EB26}"/>
+    <workbookView xWindow="25974" yWindow="-68" windowWidth="26301" windowHeight="14889" xr2:uid="{B25C7A4C-7FB3-4697-B2F1-5A343142EB26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="116">
   <si>
     <t>Ligand</t>
   </si>
@@ -304,6 +304,147 @@
   </si>
   <si>
     <t>performance (0 - 10:1, 1 - 5:1, 2 - ~1:1, 3 - 1:5, 4 - 1:&gt;5)</t>
+  </si>
+  <si>
+    <t>'1-L1'</t>
+  </si>
+  <si>
+    <t>'1-L2'</t>
+  </si>
+  <si>
+    <t>'1-L4'</t>
+  </si>
+  <si>
+    <t>'1-L8'</t>
+  </si>
+  <si>
+    <t>'1-L9'</t>
+  </si>
+  <si>
+    <t>'1-L10'</t>
+  </si>
+  <si>
+    <t>'1-L11'</t>
+  </si>
+  <si>
+    <t>'1-L12'</t>
+  </si>
+  <si>
+    <t>'1-L13'</t>
+  </si>
+  <si>
+    <t>'2-L1'</t>
+  </si>
+  <si>
+    <t>'2-L2'</t>
+  </si>
+  <si>
+    <t>'2-L4'</t>
+  </si>
+  <si>
+    <t>'2-L10'</t>
+  </si>
+  <si>
+    <t>'2-L13'</t>
+  </si>
+  <si>
+    <t>'2-L14'</t>
+  </si>
+  <si>
+    <t>'2-L15'</t>
+  </si>
+  <si>
+    <t>'2-L19'</t>
+  </si>
+  <si>
+    <t>'2-L20'</t>
+  </si>
+  <si>
+    <t>'2-L28'</t>
+  </si>
+  <si>
+    <t>'2-L31'</t>
+  </si>
+  <si>
+    <t>'3-L3'</t>
+  </si>
+  <si>
+    <t>'3-L4'</t>
+  </si>
+  <si>
+    <t>'3-L6'</t>
+  </si>
+  <si>
+    <t>'3-L8'</t>
+  </si>
+  <si>
+    <t>'3-L9'</t>
+  </si>
+  <si>
+    <t>'3-L10'</t>
+  </si>
+  <si>
+    <t>'3-L12'</t>
+  </si>
+  <si>
+    <t>'4-L1'</t>
+  </si>
+  <si>
+    <t>'4-L2'</t>
+  </si>
+  <si>
+    <t>'4-L4'</t>
+  </si>
+  <si>
+    <t>'4-L9'</t>
+  </si>
+  <si>
+    <t>'4-L10'</t>
+  </si>
+  <si>
+    <t>'4-L11'</t>
+  </si>
+  <si>
+    <t>'4-L12'</t>
+  </si>
+  <si>
+    <t>'4-L13'</t>
+  </si>
+  <si>
+    <t>'4-L14'</t>
+  </si>
+  <si>
+    <t>'4-L15'</t>
+  </si>
+  <si>
+    <t>'4-L16'</t>
+  </si>
+  <si>
+    <t>'4-L17'</t>
+  </si>
+  <si>
+    <t>'4-L19'</t>
+  </si>
+  <si>
+    <t>'4-L20'</t>
+  </si>
+  <si>
+    <t>'4-L21'</t>
+  </si>
+  <si>
+    <t>'4-L23'</t>
+  </si>
+  <si>
+    <t>'4-L24'</t>
+  </si>
+  <si>
+    <t>'4-L25'</t>
+  </si>
+  <si>
+    <t>'4-L28'</t>
+  </si>
+  <si>
+    <t>'4-L29'</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCCCC70-578B-482F-AA73-D0AC4EA99FF1}">
   <dimension ref="A1:AT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT22" sqref="AT22"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AT50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1739,12 +1880,10 @@
         <v>0</v>
       </c>
       <c r="AN2" s="11">
-        <f>IF(B2&gt;10,0,IF(B2&gt;5,1,IF(B2&lt;0.1,4,IF(B2&lt;0.2,3,2))))</f>
         <v>2</v>
       </c>
-      <c r="AT2" s="11" t="str">
-        <f>_xlfn.CONCAT("'1-",A2,"'")</f>
-        <v>'1-L1'</v>
+      <c r="AT2" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:46" s="11" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1867,12 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AN3" s="11">
-        <f>IF(B3&gt;10,0,IF(B3&gt;5,1,IF(B3&lt;0.1,4,IF(B3&lt;0.2,3,2))))</f>
         <v>2</v>
       </c>
-      <c r="AT3" s="11" t="str">
-        <f t="shared" ref="AT3:AT11" si="4">_xlfn.CONCAT("'1-",A3,"'")</f>
-        <v>'1-L2'</v>
+      <c r="AT3" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:46" s="11" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1996,12 +2133,10 @@
         <v>0</v>
       </c>
       <c r="AN4" s="11">
-        <f t="shared" ref="AN4:AN48" si="5">IF(B4&gt;10,0,IF(B4&gt;5,1,IF(B4&lt;0.1,4,IF(B4&lt;0.2,3,2))))</f>
         <v>2</v>
       </c>
-      <c r="AT4" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>'1-L4'</v>
+      <c r="AT4" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:46" s="11" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2124,12 +2259,10 @@
         <v>0</v>
       </c>
       <c r="AN5" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT5" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>'1-L8'</v>
+      <c r="AT5" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:46" s="11" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2236,7 +2369,7 @@
         <v>0.54117300000000002</v>
       </c>
       <c r="AH6" s="15">
-        <f t="shared" ref="AH6:AH10" si="6">AVERAGE(AD6:AF6)</f>
+        <f t="shared" ref="AH6:AH10" si="4">AVERAGE(AD6:AF6)</f>
         <v>-9.8857333333333339E-2</v>
       </c>
       <c r="AI6" s="73">
@@ -2252,12 +2385,10 @@
         <v>0</v>
       </c>
       <c r="AN6" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT6" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>'1-L9'</v>
+      <c r="AT6" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:46" s="11" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2364,7 +2495,7 @@
         <v>0.483045</v>
       </c>
       <c r="AH7" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-7.5183E-2</v>
       </c>
       <c r="AI7" s="73">
@@ -2380,12 +2511,10 @@
         <v>0</v>
       </c>
       <c r="AN7" s="11">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AT7" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>'1-L10'</v>
+      <c r="AT7" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:46" s="11" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2492,7 +2621,7 @@
         <v>0.52243099999999998</v>
       </c>
       <c r="AH8" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.1113</v>
       </c>
       <c r="AI8" s="73">
@@ -2508,12 +2637,10 @@
         <v>0</v>
       </c>
       <c r="AN8" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT8" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>'1-L11'</v>
+      <c r="AT8" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:46" s="11" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,12 +2763,10 @@
         <v>0</v>
       </c>
       <c r="AN9" s="11">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AT9" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>'1-L12'</v>
+      <c r="AT9" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:46" s="11" customFormat="1" ht="22.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2748,7 +2873,7 @@
         <v>0.656551</v>
       </c>
       <c r="AH10" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.20061933333333334</v>
       </c>
       <c r="AI10" s="73">
@@ -2764,12 +2889,10 @@
         <v>0</v>
       </c>
       <c r="AN10" s="11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AT10" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>'1-L13'</v>
+      <c r="AT10" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2892,12 +3015,10 @@
         <v>0</v>
       </c>
       <c r="AN11" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT11" s="11" t="str">
-        <f>_xlfn.CONCAT("'2-",A11,"'")</f>
-        <v>'2-L1'</v>
+      <c r="AT11" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2917,7 +3038,7 @@
         <v>1.8456900000000001</v>
       </c>
       <c r="F12" s="55">
-        <f t="shared" ref="F12:F21" si="7">AVERAGE(C12:E12)</f>
+        <f t="shared" ref="F12:F21" si="5">AVERAGE(C12:E12)</f>
         <v>1.8997666666666666</v>
       </c>
       <c r="G12" s="27">
@@ -2930,7 +3051,7 @@
         <v>105.67400000000001</v>
       </c>
       <c r="J12" s="30">
-        <f t="shared" ref="J12:J21" si="8">AVERAGE(G12:I12)</f>
+        <f t="shared" ref="J12:J21" si="6">AVERAGE(G12:I12)</f>
         <v>106.137</v>
       </c>
       <c r="K12" s="27">
@@ -2946,7 +3067,7 @@
         <v>0.231961</v>
       </c>
       <c r="O12" s="29">
-        <f t="shared" ref="O12:O21" si="9">AVERAGE(K12:M12)</f>
+        <f t="shared" ref="O12:O21" si="7">AVERAGE(K12:M12)</f>
         <v>-0.3078433333333333</v>
       </c>
       <c r="P12" s="30">
@@ -3004,7 +3125,7 @@
         <v>0.80734700000000004</v>
       </c>
       <c r="AH12" s="42">
-        <f t="shared" ref="AH12:AH21" si="10">AVERAGE(AD12:AF12)</f>
+        <f t="shared" ref="AH12:AH21" si="8">AVERAGE(AD12:AF12)</f>
         <v>-0.23911933333333335</v>
       </c>
       <c r="AI12" s="73">
@@ -3020,12 +3141,10 @@
         <v>0</v>
       </c>
       <c r="AN12" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT12" s="11" t="str">
-        <f t="shared" ref="AT12:AT48" si="11">_xlfn.CONCAT("'2-",A12,"'")</f>
-        <v>'2-L2'</v>
+      <c r="AT12" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3045,7 +3164,7 @@
         <v>1.83449</v>
       </c>
       <c r="F13" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8932099999999998</v>
       </c>
       <c r="G13" s="27">
@@ -3058,7 +3177,7 @@
         <v>102.122</v>
       </c>
       <c r="J13" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>105.56833333333333</v>
       </c>
       <c r="K13" s="27">
@@ -3074,7 +3193,7 @@
         <v>0.22093699999999999</v>
       </c>
       <c r="O13" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.28253166666666668</v>
       </c>
       <c r="P13" s="30">
@@ -3132,7 +3251,7 @@
         <v>0.74653700000000001</v>
       </c>
       <c r="AH13" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-6.934566666666668E-2</v>
       </c>
       <c r="AI13" s="73">
@@ -3148,12 +3267,10 @@
         <v>0</v>
       </c>
       <c r="AN13" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT13" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L4'</v>
+      <c r="AT13" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3173,7 +3290,7 @@
         <v>1.8849499999999999</v>
       </c>
       <c r="F14" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.9172066666666667</v>
       </c>
       <c r="G14" s="27">
@@ -3186,7 +3303,7 @@
         <v>105.593</v>
       </c>
       <c r="J14" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>106.40913</v>
       </c>
       <c r="K14" s="27">
@@ -3202,7 +3319,7 @@
         <v>0.26857300000000001</v>
       </c>
       <c r="O14" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.39069933333333334</v>
       </c>
       <c r="P14" s="30">
@@ -3260,7 +3377,7 @@
         <v>0.605406</v>
       </c>
       <c r="AH14" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-7.0562666666666662E-2</v>
       </c>
       <c r="AI14" s="73">
@@ -3276,12 +3393,10 @@
         <v>0</v>
       </c>
       <c r="AN14" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT14" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L10'</v>
+      <c r="AT14" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,7 +3416,7 @@
         <v>1.8580300000000001</v>
       </c>
       <c r="F15" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8824100000000001</v>
       </c>
       <c r="G15" s="27">
@@ -3314,7 +3429,7 @@
         <v>102.59099999999999</v>
       </c>
       <c r="J15" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>101.02866666666667</v>
       </c>
       <c r="K15" s="27">
@@ -3330,7 +3445,7 @@
         <v>0.230707</v>
       </c>
       <c r="O15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.20473233333333332</v>
       </c>
       <c r="P15" s="30">
@@ -3388,7 +3503,7 @@
         <v>0.68632099999999996</v>
       </c>
       <c r="AH15" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.14944666666666664</v>
       </c>
       <c r="AI15" s="73">
@@ -3404,12 +3519,10 @@
         <v>0</v>
       </c>
       <c r="AN15" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT15" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L13'</v>
+      <c r="AT15" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:46" s="103" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3429,7 +3542,7 @@
         <v>1.84558</v>
       </c>
       <c r="F16" s="95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8791933333333333</v>
       </c>
       <c r="G16" s="96">
@@ -3442,7 +3555,7 @@
         <v>102.88500000000001</v>
       </c>
       <c r="J16" s="99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>101.25133333333333</v>
       </c>
       <c r="K16" s="96">
@@ -3458,7 +3571,7 @@
         <v>0.121904</v>
       </c>
       <c r="O16" s="98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.186088</v>
       </c>
       <c r="P16" s="99">
@@ -3516,7 +3629,7 @@
         <v>0.80996299999999999</v>
       </c>
       <c r="AH16" s="94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.28919133333333336</v>
       </c>
       <c r="AI16" s="102">
@@ -3532,12 +3645,10 @@
         <v>0</v>
       </c>
       <c r="AN16" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT16" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L14'</v>
+      <c r="AT16" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3557,7 +3668,7 @@
         <v>1.8832100000000001</v>
       </c>
       <c r="F17" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8882966666666665</v>
       </c>
       <c r="G17" s="27">
@@ -3570,7 +3681,7 @@
         <v>105.742</v>
       </c>
       <c r="J17" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>104.34733333333334</v>
       </c>
       <c r="K17" s="27">
@@ -3586,7 +3697,7 @@
         <v>0.19711899999999999</v>
       </c>
       <c r="O17" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.21245833333333333</v>
       </c>
       <c r="P17" s="30">
@@ -3644,7 +3755,7 @@
         <v>0.72265100000000004</v>
       </c>
       <c r="AH17" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.17665600000000001</v>
       </c>
       <c r="AI17" s="73">
@@ -3660,12 +3771,10 @@
         <v>0</v>
       </c>
       <c r="AN17" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT17" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L15'</v>
+      <c r="AT17" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,7 +3794,7 @@
         <v>1.86869</v>
       </c>
       <c r="F18" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.88601</v>
       </c>
       <c r="G18" s="27">
@@ -3698,7 +3807,7 @@
         <v>102.172</v>
       </c>
       <c r="J18" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>100.76066666666668</v>
       </c>
       <c r="K18" s="27">
@@ -3714,7 +3823,7 @@
         <v>0.23291300000000001</v>
       </c>
       <c r="O18" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.20652633333333334</v>
       </c>
       <c r="P18" s="30">
@@ -3772,7 +3881,7 @@
         <v>0.69465500000000002</v>
       </c>
       <c r="AH18" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.15219833333333335</v>
       </c>
       <c r="AI18" s="73">
@@ -3788,12 +3897,10 @@
         <v>0</v>
       </c>
       <c r="AN18" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT18" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L19'</v>
+      <c r="AT18" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3813,7 +3920,7 @@
         <v>1.8655900000000001</v>
       </c>
       <c r="F19" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8852</v>
       </c>
       <c r="G19" s="27">
@@ -3826,7 +3933,7 @@
         <v>101.946</v>
       </c>
       <c r="J19" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>101.31066666666668</v>
       </c>
       <c r="K19" s="27">
@@ -3842,7 +3949,7 @@
         <v>0.24323700000000001</v>
       </c>
       <c r="O19" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.20483366666666666</v>
       </c>
       <c r="P19" s="30">
@@ -3900,7 +4007,7 @@
         <v>0.67689699999999997</v>
       </c>
       <c r="AH19" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.14307300000000001</v>
       </c>
       <c r="AI19" s="73">
@@ -3916,12 +4023,10 @@
         <v>0</v>
       </c>
       <c r="AN19" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT19" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L20'</v>
+      <c r="AT19" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3941,7 +4046,7 @@
         <v>1.8678699999999999</v>
       </c>
       <c r="F20" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8833533333333332</v>
       </c>
       <c r="G20" s="27">
@@ -3954,7 +4059,7 @@
         <v>101.607</v>
       </c>
       <c r="J20" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>102.14200000000001</v>
       </c>
       <c r="K20" s="27">
@@ -3970,7 +4075,7 @@
         <v>0.21211199999999999</v>
       </c>
       <c r="O20" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.20161766666666667</v>
       </c>
       <c r="P20" s="30">
@@ -4028,7 +4133,7 @@
         <v>0.68004200000000004</v>
       </c>
       <c r="AH20" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.12318966666666668</v>
       </c>
       <c r="AI20" s="73">
@@ -4044,12 +4149,10 @@
         <v>1</v>
       </c>
       <c r="AN20" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT20" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L28'</v>
+      <c r="AT20" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:46" s="24" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4069,7 +4172,7 @@
         <v>1.9233</v>
       </c>
       <c r="F21" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.8833566666666668</v>
       </c>
       <c r="G21" s="27">
@@ -4082,7 +4185,7 @@
         <v>101.84</v>
       </c>
       <c r="J21" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>96.88366666666667</v>
       </c>
       <c r="K21" s="27">
@@ -4098,7 +4201,7 @@
         <v>0.209232</v>
       </c>
       <c r="O21" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.15805766666666668</v>
       </c>
       <c r="P21" s="30">
@@ -4156,7 +4259,7 @@
         <v>0.579013</v>
       </c>
       <c r="AH21" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.1620000000000008E-3</v>
       </c>
       <c r="AI21" s="73">
@@ -4172,12 +4275,10 @@
         <v>0</v>
       </c>
       <c r="AN21" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT21" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L31'</v>
+      <c r="AT21" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4197,7 +4298,7 @@
         <v>1.93615</v>
       </c>
       <c r="F22" s="55">
-        <f t="shared" ref="F22:F28" si="12">AVERAGE(C22:E22)</f>
+        <f t="shared" ref="F22:F28" si="9">AVERAGE(C22:E22)</f>
         <v>1.8800333333333334</v>
       </c>
       <c r="G22" s="59">
@@ -4210,7 +4311,7 @@
         <v>104.777</v>
       </c>
       <c r="J22" s="47">
-        <f t="shared" ref="J22:J28" si="13">AVERAGE(G22:I22)</f>
+        <f t="shared" ref="J22:J28" si="10">AVERAGE(G22:I22)</f>
         <v>103.8</v>
       </c>
       <c r="K22" s="27">
@@ -4226,7 +4327,7 @@
         <v>0.270673</v>
       </c>
       <c r="O22" s="42">
-        <f t="shared" ref="O22:O28" si="14">AVERAGE(K22:M22)</f>
+        <f t="shared" ref="O22:O28" si="11">AVERAGE(K22:M22)</f>
         <v>-0.19380466666666665</v>
       </c>
       <c r="P22" s="54">
@@ -4284,7 +4385,7 @@
         <v>0.81233699999999998</v>
       </c>
       <c r="AH22" s="45">
-        <f t="shared" ref="AH22:AH28" si="15">AVERAGE(AD22:AF22)</f>
+        <f t="shared" ref="AH22:AH28" si="12">AVERAGE(AD22:AF22)</f>
         <v>-0.17959800000000001</v>
       </c>
       <c r="AI22" s="29">
@@ -4300,12 +4401,10 @@
         <v>1</v>
       </c>
       <c r="AN22" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT22" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L3'</v>
+      <c r="AT22" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4325,7 +4424,7 @@
         <v>1.92838</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.8795966666666668</v>
       </c>
       <c r="G23" s="59">
@@ -4338,7 +4437,7 @@
         <v>106.947</v>
       </c>
       <c r="J23" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103.08199999999999</v>
       </c>
       <c r="K23" s="27">
@@ -4354,7 +4453,7 @@
         <v>0.289775</v>
       </c>
       <c r="O23" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.19111066666666665</v>
       </c>
       <c r="P23" s="54">
@@ -4412,7 +4511,7 @@
         <v>0.69252800000000003</v>
       </c>
       <c r="AH23" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-8.9136000000000007E-2</v>
       </c>
       <c r="AI23" s="29">
@@ -4428,12 +4527,10 @@
         <v>1</v>
       </c>
       <c r="AN23" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT23" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L4'</v>
+      <c r="AT23" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4453,7 +4550,7 @@
         <v>1.9223399999999999</v>
       </c>
       <c r="F24" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.8769666666666669</v>
       </c>
       <c r="G24" s="59">
@@ -4466,7 +4563,7 @@
         <v>101.566</v>
       </c>
       <c r="J24" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>103.03633333333335</v>
       </c>
       <c r="K24" s="27">
@@ -4540,7 +4637,7 @@
         <v>0.80368799999999996</v>
       </c>
       <c r="AH24" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-0.17071433333333333</v>
       </c>
       <c r="AI24" s="29">
@@ -4556,12 +4653,10 @@
         <v>1</v>
       </c>
       <c r="AN24" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT24" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L6'</v>
+      <c r="AT24" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4581,7 +4676,7 @@
         <v>1.9303600000000001</v>
       </c>
       <c r="F25" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.8806033333333334</v>
       </c>
       <c r="G25" s="59">
@@ -4594,7 +4689,7 @@
         <v>102.419</v>
       </c>
       <c r="J25" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.04733333333333</v>
       </c>
       <c r="K25" s="27">
@@ -4610,7 +4705,7 @@
         <v>0.27567999999999998</v>
       </c>
       <c r="O25" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.21824033333333329</v>
       </c>
       <c r="P25" s="54">
@@ -4668,7 +4763,7 @@
         <v>0.81956200000000001</v>
       </c>
       <c r="AH25" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>5.0483333333333344E-3</v>
       </c>
       <c r="AI25" s="29">
@@ -4684,12 +4779,10 @@
         <v>1</v>
       </c>
       <c r="AN25" s="11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AT25" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L8'</v>
+      <c r="AT25" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4709,7 +4802,7 @@
         <v>1.93055</v>
       </c>
       <c r="F26" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.8796200000000001</v>
       </c>
       <c r="G26" s="59">
@@ -4722,7 +4815,7 @@
         <v>102.236</v>
       </c>
       <c r="J26" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.02433333333333</v>
       </c>
       <c r="K26" s="27">
@@ -4738,7 +4831,7 @@
         <v>0.26795999999999998</v>
       </c>
       <c r="O26" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.20657766666666669</v>
       </c>
       <c r="P26" s="54">
@@ -4796,7 +4889,7 @@
         <v>0.81560100000000002</v>
       </c>
       <c r="AH26" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-0.134162</v>
       </c>
       <c r="AI26" s="29">
@@ -4812,12 +4905,10 @@
         <v>1</v>
       </c>
       <c r="AN26" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT26" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L9'</v>
+      <c r="AT26" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4837,7 +4928,7 @@
         <v>1.9287399999999999</v>
       </c>
       <c r="F27" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.8763833333333331</v>
       </c>
       <c r="G27" s="59">
@@ -4850,7 +4941,7 @@
         <v>103.08799999999999</v>
       </c>
       <c r="J27" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>104.42933333333333</v>
       </c>
       <c r="K27" s="27">
@@ -4866,7 +4957,7 @@
         <v>0.26140099999999999</v>
       </c>
       <c r="O27" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.21247700000000003</v>
       </c>
       <c r="P27" s="54">
@@ -4924,7 +5015,7 @@
         <v>0.91905400000000004</v>
       </c>
       <c r="AH27" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-0.305836</v>
       </c>
       <c r="AI27" s="29">
@@ -4940,12 +5031,10 @@
         <v>1</v>
       </c>
       <c r="AN27" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT27" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L10'</v>
+      <c r="AT27" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4965,7 +5054,7 @@
         <v>1.8727199999999999</v>
       </c>
       <c r="F28" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.8615000000000002</v>
       </c>
       <c r="G28" s="59">
@@ -4978,7 +5067,7 @@
         <v>100.404</v>
       </c>
       <c r="J28" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>101.10366666666665</v>
       </c>
       <c r="K28" s="27">
@@ -4994,7 +5083,7 @@
         <v>0.26407999999999998</v>
       </c>
       <c r="O28" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>-0.17133500000000002</v>
       </c>
       <c r="P28" s="54">
@@ -5052,7 +5141,7 @@
         <v>0.79145500000000002</v>
       </c>
       <c r="AH28" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>-0.15982333333333335</v>
       </c>
       <c r="AI28" s="29">
@@ -5068,12 +5157,10 @@
         <v>1</v>
       </c>
       <c r="AN28" s="11">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AT28" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L12'</v>
+      <c r="AT28" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:46" s="34" customFormat="1" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5180,7 +5267,7 @@
         <v>0.886297</v>
       </c>
       <c r="AH29" s="46">
-        <f t="shared" ref="AH29:AH37" si="16">AVERAGE(AD29:AF29)</f>
+        <f t="shared" ref="AH29:AH37" si="13">AVERAGE(AD29:AF29)</f>
         <v>-0.21397099999999999</v>
       </c>
       <c r="AI29" s="42">
@@ -5196,12 +5283,10 @@
         <v>1</v>
       </c>
       <c r="AN29" s="11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AT29" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L1'</v>
+      <c r="AT29" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5221,7 +5306,7 @@
         <v>1.85103</v>
       </c>
       <c r="F30" s="55">
-        <f t="shared" ref="F30:F48" si="17">AVERAGE(C30:E30)</f>
+        <f t="shared" ref="F30:F48" si="14">AVERAGE(C30:E30)</f>
         <v>1.8544766666666666</v>
       </c>
       <c r="G30" s="59">
@@ -5234,7 +5319,7 @@
         <v>102.19199999999999</v>
       </c>
       <c r="J30" s="47">
-        <f t="shared" ref="J30:J48" si="18">AVERAGE(G30:I30)</f>
+        <f t="shared" ref="J30:J48" si="15">AVERAGE(G30:I30)</f>
         <v>101.73166666666667</v>
       </c>
       <c r="K30" s="27">
@@ -5250,7 +5335,7 @@
         <v>0.35523300000000002</v>
       </c>
       <c r="O30" s="29">
-        <f t="shared" ref="O30:O48" si="19">AVERAGE(K30:M30)</f>
+        <f t="shared" ref="O30:O48" si="16">AVERAGE(K30:M30)</f>
         <v>-0.16298799999999999</v>
       </c>
       <c r="P30" s="55">
@@ -5308,7 +5393,7 @@
         <v>0.82243599999999994</v>
       </c>
       <c r="AH30" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-0.23289499999999999</v>
       </c>
       <c r="AI30" s="29">
@@ -5324,12 +5409,10 @@
         <v>1</v>
       </c>
       <c r="AN30" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT30" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L2'</v>
+      <c r="AT30" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5349,7 +5432,7 @@
         <v>1.82691</v>
       </c>
       <c r="F31" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8268666666666666</v>
       </c>
       <c r="G31" s="59">
@@ -5362,7 +5445,7 @@
         <v>99.292000000000002</v>
       </c>
       <c r="J31" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>99.262333333333345</v>
       </c>
       <c r="K31" s="27">
@@ -5378,7 +5461,7 @@
         <v>0.364122</v>
       </c>
       <c r="O31" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-2.3695333333333332E-2</v>
       </c>
       <c r="P31" s="55">
@@ -5436,7 +5519,7 @@
         <v>1.1377809999999999</v>
       </c>
       <c r="AH31" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-5.4004666666666666E-2</v>
       </c>
       <c r="AI31" s="29">
@@ -5452,12 +5535,10 @@
         <v>1</v>
       </c>
       <c r="AN31" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT31" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L4'</v>
+      <c r="AT31" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5477,7 +5558,7 @@
         <v>1.85372</v>
       </c>
       <c r="F32" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8535833333333336</v>
       </c>
       <c r="G32" s="59">
@@ -5490,7 +5571,7 @@
         <v>101.56699999999999</v>
       </c>
       <c r="J32" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>101.621</v>
       </c>
       <c r="K32" s="27">
@@ -5506,7 +5587,7 @@
         <v>0.37277300000000002</v>
       </c>
       <c r="O32" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.16521566666666668</v>
       </c>
       <c r="P32" s="55">
@@ -5564,7 +5645,7 @@
         <v>0.98012699999999997</v>
       </c>
       <c r="AH32" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-0.29500299999999996</v>
       </c>
       <c r="AI32" s="29">
@@ -5580,12 +5661,10 @@
         <v>1</v>
       </c>
       <c r="AN32" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT32" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L9'</v>
+      <c r="AT32" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5605,7 +5684,7 @@
         <v>1.8534999999999999</v>
       </c>
       <c r="F33" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8532400000000002</v>
       </c>
       <c r="G33" s="59">
@@ -5618,7 +5697,7 @@
         <v>101.93</v>
       </c>
       <c r="J33" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>101.90633333333334</v>
       </c>
       <c r="K33" s="27">
@@ -5634,7 +5713,7 @@
         <v>0.385523</v>
       </c>
       <c r="O33" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.16588166666666668</v>
       </c>
       <c r="P33" s="55">
@@ -5692,7 +5771,7 @@
         <v>1.0060830000000001</v>
       </c>
       <c r="AH33" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-0.32892166666666667</v>
       </c>
       <c r="AI33" s="29">
@@ -5708,12 +5787,10 @@
         <v>1</v>
       </c>
       <c r="AN33" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT33" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L10'</v>
+      <c r="AT33" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5733,7 +5810,7 @@
         <v>1.9020999999999999</v>
       </c>
       <c r="F34" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8997633333333332</v>
       </c>
       <c r="G34" s="59">
@@ -5746,7 +5823,7 @@
         <v>101.70399999999999</v>
       </c>
       <c r="J34" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>99.589666666666673</v>
       </c>
       <c r="K34" s="27">
@@ -5762,7 +5839,7 @@
         <v>0.33751300000000001</v>
       </c>
       <c r="O34" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.15469533333333332</v>
       </c>
       <c r="P34" s="55">
@@ -5820,7 +5897,7 @@
         <v>0.92399699999999996</v>
       </c>
       <c r="AH34" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-9.9596666666666667E-2</v>
       </c>
       <c r="AI34" s="29">
@@ -5836,12 +5913,10 @@
         <v>1</v>
       </c>
       <c r="AN34" s="11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AT34" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L11'</v>
+      <c r="AT34" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,7 +5936,7 @@
         <v>1.85023</v>
       </c>
       <c r="F35" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.85049</v>
       </c>
       <c r="G35" s="59">
@@ -5874,7 +5949,7 @@
         <v>101.986</v>
       </c>
       <c r="J35" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>101.96733333333333</v>
       </c>
       <c r="K35" s="27">
@@ -5890,7 +5965,7 @@
         <v>0.32689699999999999</v>
       </c>
       <c r="O35" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.14791266666666666</v>
       </c>
       <c r="P35" s="55">
@@ -5948,7 +6023,7 @@
         <v>1.074274</v>
       </c>
       <c r="AH35" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-0.44618066666666661</v>
       </c>
       <c r="AI35" s="29">
@@ -5964,12 +6039,10 @@
         <v>1</v>
       </c>
       <c r="AN35" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT35" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L12'</v>
+      <c r="AT35" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5989,7 +6062,7 @@
         <v>1.8521799999999999</v>
       </c>
       <c r="F36" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8601466666666668</v>
       </c>
       <c r="G36" s="59">
@@ -6002,7 +6075,7 @@
         <v>107.252</v>
       </c>
       <c r="J36" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>103.79866666666668</v>
       </c>
       <c r="K36" s="27">
@@ -6018,7 +6091,7 @@
         <v>0.39658100000000002</v>
       </c>
       <c r="O36" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.14108500000000002</v>
       </c>
       <c r="P36" s="55">
@@ -6076,7 +6149,7 @@
         <v>1.115885</v>
       </c>
       <c r="AH36" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-0.48234333333333335</v>
       </c>
       <c r="AI36" s="29">
@@ -6092,12 +6165,10 @@
         <v>1</v>
       </c>
       <c r="AN36" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT36" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L13'</v>
+      <c r="AT36" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6117,7 +6188,7 @@
         <v>1.85243</v>
       </c>
       <c r="F37" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8580333333333332</v>
       </c>
       <c r="G37" s="59">
@@ -6130,7 +6201,7 @@
         <v>106.995</v>
       </c>
       <c r="J37" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>103.83499999999999</v>
       </c>
       <c r="K37" s="27">
@@ -6146,7 +6217,7 @@
         <v>0.38899800000000001</v>
       </c>
       <c r="O37" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.144397</v>
       </c>
       <c r="P37" s="55">
@@ -6204,7 +6275,7 @@
         <v>1.25326</v>
       </c>
       <c r="AH37" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>-0.67862299999999998</v>
       </c>
       <c r="AI37" s="29">
@@ -6220,12 +6291,10 @@
         <v>1</v>
       </c>
       <c r="AN37" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT37" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L14'</v>
+      <c r="AT37" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6245,7 +6314,7 @@
         <v>1.8568</v>
       </c>
       <c r="F38" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8540033333333332</v>
       </c>
       <c r="G38" s="59">
@@ -6258,7 +6327,7 @@
         <v>102.374</v>
       </c>
       <c r="J38" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>102.10466666666666</v>
       </c>
       <c r="K38" s="27">
@@ -6274,7 +6343,7 @@
         <v>0.31546800000000003</v>
       </c>
       <c r="O38" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.16088166666666667</v>
       </c>
       <c r="P38" s="55">
@@ -6348,12 +6417,10 @@
         <v>1</v>
       </c>
       <c r="AN38" s="11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AT38" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L15'</v>
+      <c r="AT38" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6373,7 +6440,7 @@
         <v>1.8540300000000001</v>
       </c>
       <c r="F39" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8526466666666668</v>
       </c>
       <c r="G39" s="59">
@@ -6386,7 +6453,7 @@
         <v>101.764</v>
       </c>
       <c r="J39" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>101.85700000000001</v>
       </c>
       <c r="K39" s="27">
@@ -6402,7 +6469,7 @@
         <v>0.33715299999999998</v>
       </c>
       <c r="O39" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.15733900000000001</v>
       </c>
       <c r="P39" s="55">
@@ -6460,7 +6527,7 @@
         <v>0.91381199999999996</v>
       </c>
       <c r="AH39" s="45">
-        <f t="shared" ref="AH39:AH48" si="20">AVERAGE(AD39:AF39)</f>
+        <f t="shared" ref="AH39:AH48" si="17">AVERAGE(AD39:AF39)</f>
         <v>-0.23979533333333336</v>
       </c>
       <c r="AI39" s="29">
@@ -6476,12 +6543,10 @@
         <v>1</v>
       </c>
       <c r="AN39" s="11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AT39" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L16'</v>
+      <c r="AT39" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6501,7 +6566,7 @@
         <v>1.8539000000000001</v>
       </c>
       <c r="F40" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8538466666666666</v>
       </c>
       <c r="G40" s="59">
@@ -6514,7 +6579,7 @@
         <v>102.818</v>
       </c>
       <c r="J40" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>102.80433333333333</v>
       </c>
       <c r="K40" s="27">
@@ -6530,7 +6595,7 @@
         <v>0.27032499999999998</v>
       </c>
       <c r="O40" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.16534499999999999</v>
       </c>
       <c r="P40" s="55">
@@ -6588,7 +6653,7 @@
         <v>0.82267699999999999</v>
       </c>
       <c r="AH40" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>-0.20986933333333332</v>
       </c>
       <c r="AI40" s="29">
@@ -6604,12 +6669,10 @@
         <v>1</v>
       </c>
       <c r="AN40" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT40" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L17'</v>
+      <c r="AT40" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6629,7 +6692,7 @@
         <v>1.85175</v>
       </c>
       <c r="F41" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8515233333333334</v>
       </c>
       <c r="G41" s="59">
@@ -6642,7 +6705,7 @@
         <v>101.79600000000001</v>
       </c>
       <c r="J41" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>101.85666666666667</v>
       </c>
       <c r="K41" s="27">
@@ -6658,7 +6721,7 @@
         <v>0.33324799999999999</v>
       </c>
       <c r="O41" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.15547633333333333</v>
       </c>
       <c r="P41" s="55">
@@ -6716,7 +6779,7 @@
         <v>0.94959800000000005</v>
       </c>
       <c r="AH41" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>-0.28349433333333329</v>
       </c>
       <c r="AI41" s="29">
@@ -6732,12 +6795,10 @@
         <v>1</v>
       </c>
       <c r="AN41" s="11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AT41" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L19'</v>
+      <c r="AT41" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6757,7 +6818,7 @@
         <v>1.8531899999999999</v>
       </c>
       <c r="F42" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8531666666666666</v>
       </c>
       <c r="G42" s="59">
@@ -6770,7 +6831,7 @@
         <v>101.756</v>
       </c>
       <c r="J42" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>101.76933333333334</v>
       </c>
       <c r="K42" s="27">
@@ -6786,7 +6847,7 @@
         <v>0.32378800000000002</v>
       </c>
       <c r="O42" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.13640433333333335</v>
       </c>
       <c r="P42" s="55">
@@ -6844,7 +6905,7 @@
         <v>0.88713600000000004</v>
       </c>
       <c r="AH42" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>-0.16472033333333333</v>
       </c>
       <c r="AI42" s="29">
@@ -6860,12 +6921,10 @@
         <v>1</v>
       </c>
       <c r="AN42" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT42" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L20'</v>
+      <c r="AT42" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6885,7 +6944,7 @@
         <v>1.8521799999999999</v>
       </c>
       <c r="F43" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8523399999999999</v>
       </c>
       <c r="G43" s="59">
@@ -6898,7 +6957,7 @@
         <v>102.83199999999999</v>
       </c>
       <c r="J43" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>102.74266666666666</v>
       </c>
       <c r="K43" s="27">
@@ -6914,7 +6973,7 @@
         <v>0.26607999999999998</v>
       </c>
       <c r="O43" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.16751000000000002</v>
       </c>
       <c r="P43" s="55">
@@ -6972,7 +7031,7 @@
         <v>0.88112299999999999</v>
       </c>
       <c r="AH43" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>-0.27503100000000003</v>
       </c>
       <c r="AI43" s="29">
@@ -6988,12 +7047,10 @@
         <v>1</v>
       </c>
       <c r="AN43" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT43" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L21'</v>
+      <c r="AT43" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7112,12 +7169,10 @@
         <v>1</v>
       </c>
       <c r="AN44" s="11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AT44" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L23'</v>
+      <c r="AT44" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7137,7 +7192,7 @@
         <v>1.8521300000000001</v>
       </c>
       <c r="F45" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8521466666666668</v>
       </c>
       <c r="G45" s="59">
@@ -7150,7 +7205,7 @@
         <v>101.798</v>
       </c>
       <c r="J45" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>101.74366666666667</v>
       </c>
       <c r="K45" s="27">
@@ -7166,7 +7221,7 @@
         <v>0.32433699999999999</v>
       </c>
       <c r="O45" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.11729333333333332</v>
       </c>
       <c r="P45" s="55">
@@ -7224,7 +7279,7 @@
         <v>0.96653999999999995</v>
       </c>
       <c r="AH45" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>-0.26353899999999997</v>
       </c>
       <c r="AI45" s="29">
@@ -7240,12 +7295,10 @@
         <v>1</v>
       </c>
       <c r="AN45" s="11">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AT45" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L24'</v>
+      <c r="AT45" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7265,7 +7318,7 @@
         <v>1.85185</v>
       </c>
       <c r="F46" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.85239</v>
       </c>
       <c r="G46" s="59">
@@ -7278,7 +7331,7 @@
         <v>102.59399999999999</v>
       </c>
       <c r="J46" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>102.46833333333332</v>
       </c>
       <c r="K46" s="27">
@@ -7368,12 +7421,10 @@
         <v>1</v>
       </c>
       <c r="AN46" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT46" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L25'</v>
+      <c r="AT46" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7393,7 +7444,7 @@
         <v>1.8546899999999999</v>
       </c>
       <c r="F47" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8682373333333333</v>
       </c>
       <c r="G47" s="59">
@@ -7406,7 +7457,7 @@
         <v>100.947</v>
       </c>
       <c r="J47" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>101.05900000000001</v>
       </c>
       <c r="K47" s="27">
@@ -7422,7 +7473,7 @@
         <v>0.40814</v>
       </c>
       <c r="O47" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.17249933333333334</v>
       </c>
       <c r="P47" s="55">
@@ -7480,7 +7531,7 @@
         <v>0.90793299999999999</v>
       </c>
       <c r="AH47" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>-0.22962766666666667</v>
       </c>
       <c r="AI47" s="29">
@@ -7496,12 +7547,10 @@
         <v>1</v>
       </c>
       <c r="AN47" s="11">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AT47" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L28'</v>
+      <c r="AT47" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:46" s="34" customFormat="1" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7521,7 +7570,7 @@
         <v>1.8515699999999999</v>
       </c>
       <c r="F48" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.8559866666666665</v>
       </c>
       <c r="G48" s="59">
@@ -7534,7 +7583,7 @@
         <v>103.94499999999999</v>
       </c>
       <c r="J48" s="47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>102.14566666666667</v>
       </c>
       <c r="K48" s="27">
@@ -7550,7 +7599,7 @@
         <v>0.272756</v>
       </c>
       <c r="O48" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>-0.18515466666666666</v>
       </c>
       <c r="P48" s="55">
@@ -7608,7 +7657,7 @@
         <v>-7.3538000000000006E-2</v>
       </c>
       <c r="AH48" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>-0.45273599999999997</v>
       </c>
       <c r="AI48" s="29">
@@ -7624,12 +7673,10 @@
         <v>1</v>
       </c>
       <c r="AN48" s="11">
-        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AT48" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v>'2-L29'</v>
+      <c r="AT48" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="38:38" ht="15.65" x14ac:dyDescent="0.25">
